--- a/blog/FPR.xlsx
+++ b/blog/FPR.xlsx
@@ -892,16 +892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1245,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -1642,7 +1642,6 @@
     </row>
     <row r="15" spans="1:17" ht="14"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/blog/FPR.xlsx
+++ b/blog/FPR.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="CDK FP VS New FP" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -325,11 +326,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="282024920"/>
-        <c:axId val="282420376"/>
+        <c:axId val="360660712"/>
+        <c:axId val="269196232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="282024920"/>
+        <c:axId val="360660712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,14 +354,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282420376"/>
+        <c:crossAx val="269196232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282420376"/>
+        <c:axId val="269196232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,7 +387,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282024920"/>
+        <c:crossAx val="360660712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -422,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>True Positive Rate (TPR) and False Postive Rate (FPR)</a:t>
+              <a:t>Accuracy and False Positive Rate (FPR)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -436,7 +437,7 @@
         <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'CDK FP VS New FP'!$N$1</c:f>
@@ -504,7 +505,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'CDK FP VS New FP'!$O$1</c:f>
@@ -570,36 +571,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="282565384"/>
-        <c:axId val="281026776"/>
+        <c:axId val="282517304"/>
+        <c:axId val="284071320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CDK FP VS New FP'!$L$1</c:f>
+              <c:f>'CDK FP VS New FP'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TPR (CDK)</c:v>
+                  <c:v>ACCURACY (CDK)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="4F81BD">
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                  <a:alpha val="46000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'CDK FP VS New FP'!$A$2:$A$7</c:f>
@@ -628,27 +618,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CDK FP VS New FP'!$L$2:$L$7</c:f>
+              <c:f>'CDK FP VS New FP'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>0.988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>0.986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>0.987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,29 +646,18 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CDK FP VS New FP'!$M$1</c:f>
+              <c:f>'CDK FP VS New FP'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TPR (New)</c:v>
+                  <c:v>ACCURACY (New)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'CDK FP VS New FP'!$A$2:$A$7</c:f>
@@ -707,38 +686,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CDK FP VS New FP'!$M$2:$M$7</c:f>
+              <c:f>'CDK FP VS New FP'!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>0.993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>0.992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>0.991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>0.991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="370984712"/>
-        <c:axId val="268965144"/>
+        <c:axId val="360445320"/>
+        <c:axId val="327763304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282565384"/>
+        <c:axId val="282517304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,14 +741,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281026776"/>
+        <c:crossAx val="284071320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281026776"/>
+        <c:axId val="284071320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,49 +774,31 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282565384"/>
+        <c:crossAx val="282517304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268965144"/>
+        <c:axId val="327763304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>TPR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370984712"/>
+        <c:crossAx val="360445320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370984712"/>
+        <c:axId val="360445320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268965144"/>
+        <c:crossAx val="327763304"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -862,16 +823,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -892,16 +853,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1243,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1640,7 +1601,6 @@
     <row r="14" spans="1:17" ht="14">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="14"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1652,4 +1612,24 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>